--- a/biology/Botanique/Myodocarpaceae/Myodocarpaceae.xlsx
+++ b/biology/Botanique/Myodocarpaceae/Myodocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Myodocarpacées est une famille de plantes dicotylédones.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Myodocarpus, composé des mots grecs μυώδες / myodes, « ressemblant à une 
-souris », et καρπός / karpos, fruit, faisant référence au fruit (samare), doté d'ailes en forme d'oreilles, qui fait penser à une tête de souris[1].
+souris », et καρπός / karpos, fruit, faisant référence au fruit (samare), doté d'ailes en forme d'oreilles, qui fait penser à une tête de souris.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existe pas; ces plantes sont incluses dans la famille Araliaceae.
-En classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4] elle compte 2 à 3 genres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas; ces plantes sont incluses dans la famille Araliaceae.
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) elle compte 2 à 3 genres.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016) :
 Delarbrea
 Myodocarpus
 Pseudosciadium
-Selon NCBI  (16 octobre 2016)[6] :
+Selon NCBI  (16 octobre 2016) :
 Delarbrea
 Myodocarpus</t>
         </is>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 octobre 2016)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 octobre 2016) :
 genre Delarbrea
 Delarbrea balansae
 Delarbrea collina
